--- a/вариант 2024 2025/ШастинБахтиев/2/22_18046.xlsx
+++ b/вариант 2024 2025/ШастинБахтиев/2/22_18046.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="144525"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,28 +341,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="N13" sqref="N3:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="6" max="28" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,12 +373,77 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
       <c r="H1">
-        <f>MAX(G:G)</f>
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>9</v>
+      </c>
+      <c r="O1">
+        <v>10</v>
+      </c>
+      <c r="P1">
+        <v>11</v>
+      </c>
+      <c r="Q1">
+        <v>12</v>
+      </c>
+      <c r="R1">
+        <v>13</v>
+      </c>
+      <c r="S1">
+        <v>14</v>
+      </c>
+      <c r="T1">
+        <v>15</v>
+      </c>
+      <c r="U1">
+        <v>16</v>
+      </c>
+      <c r="V1">
+        <v>17</v>
+      </c>
+      <c r="W1">
+        <v>18</v>
+      </c>
+      <c r="X1">
+        <v>19</v>
+      </c>
+      <c r="Y1">
+        <v>20</v>
+      </c>
+      <c r="Z1">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="AA1">
+        <v>22</v>
+      </c>
+      <c r="AB1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -388,19 +454,32 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(C2,$A:$G,7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:G2" si="0">VLOOKUP(D2,$A:$G,7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <f>MAX(E2:F2)+B2</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="b">
+        <f>SUM(F2:AB2)=B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -411,19 +490,20 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="1">VLOOKUP(C3,$A:$G,7,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F14" si="2">VLOOKUP(D3,$A:$G,7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G13" si="3">MAX(E3:F3)+B3</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="b">
+        <f t="shared" ref="AC3:AC13" si="0">SUM(F3:AB3)=B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -437,19 +517,29 @@
         <v>1002</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -460,19 +550,26 @@
         <v>1001</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -483,19 +580,35 @@
         <v>1003</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -506,19 +619,32 @@
         <v>1004</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -532,19 +658,23 @@
         <v>1005</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -555,19 +685,29 @@
         <v>1006</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -578,19 +718,35 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -601,19 +757,32 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -624,19 +793,41 @@
         <v>1009</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -647,28 +838,165 @@
         <v>1010</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>SUM(F2:F13)</f>
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:AB14" si="1">SUM(G2:G13)</f>
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="AB14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:AB13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:AB14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>